--- a/data/Hackathon/Results.xlsx
+++ b/data/Hackathon/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\landw\source\repos\CSharpCooking.github.io\data\Hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76795381-FC1C-4A88-A848-B7324276E52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E060C03F-48B3-4B24-A95F-CA3823A57528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>Состав команды</t>
   </si>
@@ -141,6 +141,9 @@
   <si>
     <t>1) Загрутдинов Булат Русланович, КНИТУ-КАИ
 2) Шарафиев Тимур Эдуардович, КНИТУ-КАИ</t>
+  </si>
+  <si>
+    <t>https://csharpcooking.github.io/data/Hackathon/TeamHasanovSolution.zip</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7">
         <v>4229433</v>
@@ -972,5 +975,6 @@
     <hyperlink ref="C3" r:id="rId5" xr:uid="{F47E23D6-C835-4A8E-A113-C21E19F0124B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>